--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification-with-CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9F008-3320-DB48-8DCF-F464D0AF5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9DF81-7A97-B943-BC12-B2FE9564EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34720" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="98">
   <si>
     <t>Activity</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from coal gasification, with CCS</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
@@ -315,9 +312,6 @@
 We do not need to correct the carbon balance because the amount of CO2 not stored underground ends up anyway embodied in the fuel instead (until combustion).</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
     <t>liquefied petroleum gas, synthetic</t>
   </si>
   <si>
@@ -328,6 +322,15 @@
   </si>
   <si>
     <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, from coal, energy allocation, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>hydrogen production, coal gasification, with CCS</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>RoW</t>
   </si>
 </sst>
 </file>
@@ -449,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3659,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -3675,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -3707,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -3715,7 +3718,7 @@
         <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3995,14 +3998,14 @@
       </c>
     </row>
     <row r="235" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
-        <v>90</v>
+      <c r="A235" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B235" s="8">
         <v>0.125</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>6</v>
@@ -4011,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4145,7 +4148,7 @@
         <v>9</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4197,14 +4200,14 @@
       </c>
     </row>
     <row r="251" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
-        <v>90</v>
+      <c r="A251" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B251" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>6</v>
@@ -4213,7 +4216,7 @@
         <v>17</v>
       </c>
       <c r="G251" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
